--- a/DataSetUsageHoursPerWeek.xlsx
+++ b/DataSetUsageHoursPerWeek.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{3A6D15A8-CB0A-0646-BEF9-D99312A76AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="760" windowWidth="14680" windowHeight="17240" xr2:uid="{A3C9B515-2268-1D4D-B009-0A07A6E8C0DE}"/>
+    <workbookView xWindow="15540" yWindow="760" windowWidth="14680" windowHeight="17200" xr2:uid="{A3C9B515-2268-1D4D-B009-0A07A6E8C0DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
